--- a/output/prompt_experiment_2023-04-09_1545.xlsx
+++ b/output/prompt_experiment_2023-04-09_1545.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/93345f1c83a5c894/lighthouse/Ginkgo coding/content-summarization/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{542CB1C5-E389-4CA1-8151-B75E7F88FC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EED59B1-B95A-4B52-A21B-CCF2FFADCF71}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{542CB1C5-E389-4CA1-8151-B75E7F88FC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B93156D-BC9E-45AB-AC12-E85774283CBC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -975,6 +975,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1274,13 +1278,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1291,6 +1295,29 @@
     <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="2">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2">
+        <v>5</v>
+      </c>
+    </row>
     <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
@@ -1680,7 +1707,7 @@
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
